--- a/data/Cert_coding.xlsx
+++ b/data/Cert_coding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Cert_standards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1792148-B7AF-4C1D-846F-FBAD026F3C0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CDB804-98FE-4B6B-A39A-EB9C67AFBC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1EC9569E-3B54-4671-BB69-0CEE5D05B2FB}"/>
+    <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="11" xr2:uid="{1EC9569E-3B54-4671-BB69-0CEE5D05B2FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="3" r:id="rId1"/>
@@ -24,49 +24,50 @@
     <sheet name="RSPO" sheetId="18" r:id="rId9"/>
     <sheet name="Fair Trade USA" sheetId="17" r:id="rId10"/>
     <sheet name="LIVE" sheetId="15" r:id="rId11"/>
-    <sheet name="SIP" sheetId="14" r:id="rId12"/>
-    <sheet name="LODI Rules" sheetId="13" r:id="rId13"/>
-    <sheet name="FlorVerde" sheetId="12" r:id="rId14"/>
-    <sheet name="Eco Apple Stonefruit" sheetId="11" r:id="rId15"/>
-    <sheet name="Red Tomato Eco Apple" sheetId="10" r:id="rId16"/>
-    <sheet name="Red Tomato Eco" sheetId="9" r:id="rId17"/>
-    <sheet name="Protected Harvest Citrus" sheetId="8" r:id="rId18"/>
-    <sheet name="Fair Trade Intl" sheetId="27" r:id="rId19"/>
-    <sheet name="BCI" sheetId="1" r:id="rId20"/>
-    <sheet name="BloomCheck" sheetId="2" r:id="rId21"/>
-    <sheet name="CMIA" sheetId="4" r:id="rId22"/>
-    <sheet name="HealthyGrown" sheetId="5" r:id="rId23"/>
-    <sheet name="Food Alliance" sheetId="6" r:id="rId24"/>
-    <sheet name="Rainforest Alliance" sheetId="7" r:id="rId25"/>
+    <sheet name="CCSW" sheetId="28" r:id="rId12"/>
+    <sheet name="SIP" sheetId="14" r:id="rId13"/>
+    <sheet name="LODI Rules" sheetId="13" r:id="rId14"/>
+    <sheet name="FlorVerde" sheetId="12" r:id="rId15"/>
+    <sheet name="Eco Apple Stonefruit" sheetId="11" r:id="rId16"/>
+    <sheet name="Red Tomato Eco Apple" sheetId="10" r:id="rId17"/>
+    <sheet name="Red Tomato Eco" sheetId="9" r:id="rId18"/>
+    <sheet name="Protected Harvest Citrus" sheetId="8" r:id="rId19"/>
+    <sheet name="Fair Trade Intl" sheetId="27" r:id="rId20"/>
+    <sheet name="BCI" sheetId="1" r:id="rId21"/>
+    <sheet name="BloomCheck" sheetId="2" r:id="rId22"/>
+    <sheet name="CMIA" sheetId="4" r:id="rId23"/>
+    <sheet name="HealthyGrown" sheetId="5" r:id="rId24"/>
+    <sheet name="Food Alliance" sheetId="6" r:id="rId25"/>
+    <sheet name="Rainforest Alliance" sheetId="7" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_edn1" localSheetId="23">'Food Alliance'!$D$14</definedName>
-    <definedName name="_ednref1" localSheetId="23">'Food Alliance'!$D$11</definedName>
-    <definedName name="_Toc17767377" localSheetId="23">'Food Alliance'!$D$4</definedName>
-    <definedName name="_Toc17767378" localSheetId="23">'Food Alliance'!$D$14</definedName>
-    <definedName name="_Toc324765676" localSheetId="23">'Food Alliance'!$D$2</definedName>
-    <definedName name="_Toc324765677" localSheetId="23">'Food Alliance'!$D$3</definedName>
-    <definedName name="_Toc324765679" localSheetId="23">'Food Alliance'!$D$6</definedName>
-    <definedName name="_Toc324765680" localSheetId="23">'Food Alliance'!$D$7</definedName>
-    <definedName name="_Toc324765681" localSheetId="23">'Food Alliance'!$D$8</definedName>
-    <definedName name="_Toc324765682" localSheetId="23">'Food Alliance'!$D$9</definedName>
-    <definedName name="_Toc324765683" localSheetId="23">'Food Alliance'!$D$10</definedName>
-    <definedName name="_Toc324765684" localSheetId="23">'Food Alliance'!$D$11</definedName>
-    <definedName name="_Toc324765685" localSheetId="23">'Food Alliance'!$D$12</definedName>
-    <definedName name="_Toc324765686" localSheetId="23">'Food Alliance'!$D$13</definedName>
-    <definedName name="_Toc345660284" localSheetId="23">'Food Alliance'!$D$5</definedName>
-    <definedName name="_Toc345660294" localSheetId="23">'Food Alliance'!$D$15</definedName>
-    <definedName name="_Toc459286892" localSheetId="23">'Food Alliance'!$A$2</definedName>
-    <definedName name="Check144" localSheetId="23">'Food Alliance'!$D$8</definedName>
-    <definedName name="Check145" localSheetId="23">'Food Alliance'!$D$9</definedName>
-    <definedName name="Check146" localSheetId="23">'Food Alliance'!$D$10</definedName>
-    <definedName name="Check147" localSheetId="23">'Food Alliance'!$D$11</definedName>
-    <definedName name="Check148" localSheetId="23">'Food Alliance'!$D$12</definedName>
-    <definedName name="Check149" localSheetId="23">'Food Alliance'!$D$13</definedName>
-    <definedName name="Check150" localSheetId="23">'Food Alliance'!$D$14</definedName>
-    <definedName name="Check151" localSheetId="23">'Food Alliance'!$D$15</definedName>
-    <definedName name="Check152" localSheetId="23">'Food Alliance'!$D$16</definedName>
-    <definedName name="Check153" localSheetId="23">'Food Alliance'!$D$17</definedName>
+    <definedName name="_edn1" localSheetId="24">'Food Alliance'!$D$14</definedName>
+    <definedName name="_ednref1" localSheetId="24">'Food Alliance'!$D$11</definedName>
+    <definedName name="_Toc17767377" localSheetId="24">'Food Alliance'!$D$4</definedName>
+    <definedName name="_Toc17767378" localSheetId="24">'Food Alliance'!$D$14</definedName>
+    <definedName name="_Toc324765676" localSheetId="24">'Food Alliance'!$D$2</definedName>
+    <definedName name="_Toc324765677" localSheetId="24">'Food Alliance'!$D$3</definedName>
+    <definedName name="_Toc324765679" localSheetId="24">'Food Alliance'!$D$6</definedName>
+    <definedName name="_Toc324765680" localSheetId="24">'Food Alliance'!$D$7</definedName>
+    <definedName name="_Toc324765681" localSheetId="24">'Food Alliance'!$D$8</definedName>
+    <definedName name="_Toc324765682" localSheetId="24">'Food Alliance'!$D$9</definedName>
+    <definedName name="_Toc324765683" localSheetId="24">'Food Alliance'!$D$10</definedName>
+    <definedName name="_Toc324765684" localSheetId="24">'Food Alliance'!$D$11</definedName>
+    <definedName name="_Toc324765685" localSheetId="24">'Food Alliance'!$D$12</definedName>
+    <definedName name="_Toc324765686" localSheetId="24">'Food Alliance'!$D$13</definedName>
+    <definedName name="_Toc345660284" localSheetId="24">'Food Alliance'!$D$5</definedName>
+    <definedName name="_Toc345660294" localSheetId="24">'Food Alliance'!$D$15</definedName>
+    <definedName name="_Toc459286892" localSheetId="24">'Food Alliance'!$A$2</definedName>
+    <definedName name="Check144" localSheetId="24">'Food Alliance'!$D$8</definedName>
+    <definedName name="Check145" localSheetId="24">'Food Alliance'!$D$9</definedName>
+    <definedName name="Check146" localSheetId="24">'Food Alliance'!$D$10</definedName>
+    <definedName name="Check147" localSheetId="24">'Food Alliance'!$D$11</definedName>
+    <definedName name="Check148" localSheetId="24">'Food Alliance'!$D$12</definedName>
+    <definedName name="Check149" localSheetId="24">'Food Alliance'!$D$13</definedName>
+    <definedName name="Check150" localSheetId="24">'Food Alliance'!$D$14</definedName>
+    <definedName name="Check151" localSheetId="24">'Food Alliance'!$D$15</definedName>
+    <definedName name="Check152" localSheetId="24">'Food Alliance'!$D$16</definedName>
+    <definedName name="Check153" localSheetId="24">'Food Alliance'!$D$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5418" uniqueCount="2338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5655" uniqueCount="2451">
   <si>
     <t>Section</t>
   </si>
@@ -7135,6 +7136,710 @@
   </si>
   <si>
     <t>Fair Trade Intl</t>
+  </si>
+  <si>
+    <t>Farmer Knowledge</t>
+  </si>
+  <si>
+    <t>Apply Based on Monitoring: Vague</t>
+  </si>
+  <si>
+    <t>Calendar/Random Spraying</t>
+  </si>
+  <si>
+    <t>Regional: Wisconsin and Minnesota</t>
+  </si>
+  <si>
+    <t>CCSW</t>
+  </si>
+  <si>
+    <t>Certified California Sustainable Winegrowing</t>
+  </si>
+  <si>
+    <t>NGO / Government</t>
+  </si>
+  <si>
+    <t>Min score 85%</t>
+  </si>
+  <si>
+    <t>3: Viticulture</t>
+  </si>
+  <si>
+    <t>No soil samples were
+taken for biological
+problems during preplanting,
+but the
+previous crop or cover
+vegetation was
+considered when
+planting and managing
+the new vineyard.</t>
+  </si>
+  <si>
+    <t>Consider previous vegetation when planting</t>
+  </si>
+  <si>
+    <t>To mitigate potential
+biological problems
+strategies were used
+during development or
+redevelopment such as
+removing as many
+roots as possible from
+the previous (perennial)
+crop, using resistant
+rootstocks, using nonhost
+cover crops.</t>
+  </si>
+  <si>
+    <t>Remove previous perennial roots when establishing vineyard</t>
+  </si>
+  <si>
+    <t>Rootstocks were
+chosen to resist the
+soil-borne pests present
+in the vineyard or
+region
+And
+Rootstocks were
+certified virus free, or
+were tested for viruses
+and confirmed negative
+And
+Rootstocks were
+chosen to provide
+adequate vigor when
+matched with the soil
+and scion, aiming for
+optimum production
+for wine quality.</t>
+  </si>
+  <si>
+    <t>3 and 4</t>
+  </si>
+  <si>
+    <t>Virus free-rootstocks, pest-resistant rootstocks</t>
+  </si>
+  <si>
+    <t>The scion was either
+certified virus free, or
+has been tested for
+viruses and confirmed
+negative</t>
+  </si>
+  <si>
+    <t>Virus-free scion wood used</t>
+  </si>
+  <si>
+    <t>During initial vineyard
+establishment and/or
+development, efforts
+were made to
+understand and protect
+important habitat.</t>
+  </si>
+  <si>
+    <t>Efforts made to understand and protect habitat for pest predators</t>
+  </si>
+  <si>
+    <t>3 &amp; 4</t>
+  </si>
+  <si>
+    <t>Hedgerows, shrubs, or
+grasses with native and,
+if appropriate, nonnative
+flowering plants
+were maintained
+throughout the property</t>
+  </si>
+  <si>
+    <t>Hedgerows and native flowering plants maintained</t>
+  </si>
+  <si>
+    <t>Resident, native, or
+non-native vegetation
+was allowed to grow
+without mowing or
+disking in some noncrop
+areas (e.g., fence
+lines, ditch banks).</t>
+  </si>
+  <si>
+    <t>Allow vegetation to grow in some areas</t>
+  </si>
+  <si>
+    <t>If present, non-native
+plants were removed to
+enhance native habitat
+using any required
+permits (e.g., Fish and
+Game Code § 1600)
+And
+Ponds or other water
+sources were provided
+for birds and other
+wildlife, if appropriate .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water sources for wildlife </t>
+  </si>
+  <si>
+    <t>Remove invasive plants</t>
+  </si>
+  <si>
+    <t>4: Soil management</t>
+  </si>
+  <si>
+    <t>An annual resident
+cover crop (nonseeded)
+was managed
+between vine rows
+during winter.</t>
+  </si>
+  <si>
+    <t>Winter cover-crops between rows</t>
+  </si>
+  <si>
+    <t>6: Pest management</t>
+  </si>
+  <si>
+    <t>The vineyard was
+monitored periodically
+for insect and mite
+pests during the
+growing season.</t>
+  </si>
+  <si>
+    <t>Records kept of monitoring</t>
+  </si>
+  <si>
+    <t>Vineyard employees*
+were trained and
+encouraged to draw
+attention to pests and
+diseases problems but
+could not accurately
+identify key pest
+species and diseases.</t>
+  </si>
+  <si>
+    <t>Employees trained to identify pests</t>
+  </si>
+  <si>
+    <t>Control decisions for
+leafhoppers, mites, and
+thrips were based on
+economic thresholds*
+(e.g., leafhopper
+nymphs per leaf,
+number of leafhopper
+adults, percent leaves
+with mites, leaf
+damage).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6: Pest management </t>
+  </si>
+  <si>
+    <t>Non-target risks (e.g.,
+impacts to beneficial
+insects and mites and
+environmental and
+human health) were
+considered when
+selecting and using
+insecticides or
+miticides.</t>
+  </si>
+  <si>
+    <t>Non-target species "taken into account"</t>
+  </si>
+  <si>
+    <t>Cultural practices (e.g.,
+leaf removal*, cover
+crops, hedgerows,
+sanitation, dust control,
+irrigation) were
+considered for
+managing insect and
+mite pests in the
+vineyard</t>
+  </si>
+  <si>
+    <t>Cultural practices "were considered"</t>
+  </si>
+  <si>
+    <t>Vehicle speed was
+controlled on any
+unpaved roads
+surrounding the
+vineyard and vineyard
+traffic was limited
+And
+Vineyard practices that
+create dust were
+identified and their
+impact was minimized.</t>
+  </si>
+  <si>
+    <t>Dust Mitigation for mite management</t>
+  </si>
+  <si>
+    <t>Necessary treatments
+for moth pests were
+based on accumulated
+degree-days* (see Box
+6-I), initiated by
+pheromone trap counts
+and calculated using
+weather station data
+and computerized
+insect-growth
+models**
+And
+Problematic
+populations and growth
+stages were confirmed
+by in-field monitoring
+and use of economic
+thresholds.</t>
+  </si>
+  <si>
+    <t>Pest hotspots were
+identified only as an
+indicator of a problem
+And
+The entire block or
+vineyard was treated
+when controlling mites
+or leafhoppers.</t>
+  </si>
+  <si>
+    <t>Pest hot-spots identified</t>
+  </si>
+  <si>
+    <t>Signs of
+mealybugs were
+monitored
+annually in the
+vineyard
+And
+If found, infested
+and non-infested
+areas were treated.</t>
+  </si>
+  <si>
+    <t>Mealybugs monitored annually</t>
+  </si>
+  <si>
+    <t>A soil-borne pest
+management strategy
+has been developed
+And
+The strategy includes
+sampling the vineyard
+soil at least once every
+5 years for soil-borne
+pests such as
+phylloxera and/or
+parasitic nematodes
+And
+Sampling results were
+used to determine and
+take appropriate
+management
+action(s)**.</t>
+  </si>
+  <si>
+    <t>Soil-Borne IPM plan exists</t>
+  </si>
+  <si>
+    <t>Sample soil for soil-borne pests at least once every 5 years</t>
+  </si>
+  <si>
+    <t>The vineyard was
+monitored periodically
+for diseases during
+critical periods.</t>
+  </si>
+  <si>
+    <t>Application decisions
+for powdery mildew
+were based on an
+established calendar
+program
+And
+Fungicide rates were
+altered based on
+vineyard conditions
+and/or monitoring
+And
+Fungicides with
+different modes of
+action were ‘rotated’ at
+least once within the
+season Or only sulfur
+products were used.</t>
+  </si>
+  <si>
+    <t>MOA rotation for fungicides</t>
+  </si>
+  <si>
+    <t>Fungicide rates altered based on monitoring</t>
+  </si>
+  <si>
+    <t>Non-target risks (e.g.,
+impacts to beneficial
+organisms and human
+and environmental
+health) were considered
+when selecting and
+using fungicides for
+powdery mildew and
+Botrytis control</t>
+  </si>
+  <si>
+    <t>Non-target risks (considered) for fungicides</t>
+  </si>
+  <si>
+    <t>Susceptible varieties
+were pruned late during
+dormancy.*</t>
+  </si>
+  <si>
+    <t>Pruning for canker management</t>
+  </si>
+  <si>
+    <t>Fungicides for bunch
+rot were applied only
+between bloom and
+bunch closure, unless
+prolonged wet weather
+necessitated
+applications to protect
+shoots or ripe fruit
+And
+Practices were used to
+reduce physical fruit
+damage (predisposes
+berries to bunch rot)
+such as adjusting
+irrigation to limit berry
+size and splitting, and
+controlling feeding by
+OLR, orange tortrix,
+and birds.</t>
+  </si>
+  <si>
+    <t>Limit fruit size to reduce bunch-rot</t>
+  </si>
+  <si>
+    <t>Time-limit fungicide application for bunch-rot</t>
+  </si>
+  <si>
+    <t>A strategy for PD
+management has been
+developed and includes
+monitoring of blue-green
+sharpshooters
+And
+Management of PD
+consists of insecticide
+applications for bluegreen
+sharpshooter, if
+necessary.</t>
+  </si>
+  <si>
+    <t>Have strategy for blue-green sharpshooter</t>
+  </si>
+  <si>
+    <t>monitor for blue-green sharpshooter</t>
+  </si>
+  <si>
+    <t>Management insect disease vector with pesticides</t>
+  </si>
+  <si>
+    <t>The vineyard was
+monitored
+periodically* (e.g., at
+least twice a year) for
+weeds.</t>
+  </si>
+  <si>
+    <t>The person(s) making
+pest management
+decisions could identify
+the weeds in the
+vineyard which were
+targeted for control.</t>
+  </si>
+  <si>
+    <t>Workers can identify important weeds</t>
+  </si>
+  <si>
+    <t>Cost, efficacy, and
+timing were considered
+when selecting control
+tactics.</t>
+  </si>
+  <si>
+    <t>Weed management plan considers cost, efficacy, timing</t>
+  </si>
+  <si>
+    <t>The person(s) making
+pest management
+decisions was aware of
+ground water
+protection areas*,
+where applicable, and
+associated restrictions
+for herbicide use
+And
+Pest management
+decisions were made
+with awareness of
+herbicide leaching
+potential.</t>
+  </si>
+  <si>
+    <t>Take into account herbicide leaching potential</t>
+  </si>
+  <si>
+    <t>Worker is aware of groundwater protection areas</t>
+  </si>
+  <si>
+    <t>The entire berm or vine
+row was treated with
+herbicides
+And
+Some weeds were
+tolerated.</t>
+  </si>
+  <si>
+    <t>Tolerate some weeds</t>
+  </si>
+  <si>
+    <t>The vineyard was
+monitored at least
+quarterly for vertebrate
+pests (as appropriate
+based on
+species/lifecycles
+present).</t>
+  </si>
+  <si>
+    <t>Anticoagulant and/or
+strychnine baits were
+regularly used to
+control vertebrate pests
+but extra precautions
+were taken to ensure
+non-target animals
+cannot ingest them
+And/Or
+Fumigants or explosive
+devices may have been
+used.</t>
+  </si>
+  <si>
+    <t>ensure that non-target animals do not eat rodenticides</t>
+  </si>
+  <si>
+    <t>One maintained owl
+box* existed for every
+100 or more vineyard
+acres.</t>
+  </si>
+  <si>
+    <t>Nest boxes for owls</t>
+  </si>
+  <si>
+    <t>Conventional dilute
+sprayers were
+predominantly used
+and produce large
+droplets but without air
+induction nozzles.</t>
+  </si>
+  <si>
+    <t>large-droplet sprayers used</t>
+  </si>
+  <si>
+    <t>Sprayer calibration AND spray-coverage checks</t>
+  </si>
+  <si>
+    <t>The sprayer was
+calibrated every year
+And
+Nozzle wear, nozzle
+variation, and spray
+coverage were checked
+at least every other
+year.</t>
+  </si>
+  <si>
+    <t>Nozzles were
+positioned and adjusted
+as canopy size and
+density changed during
+the season.</t>
+  </si>
+  <si>
+    <t>Adjust and reposition nozzles as canopy cover changes</t>
+  </si>
+  <si>
+    <t>Reasonable buffer
+zones* were
+established near any
+sensitive areas**</t>
+  </si>
+  <si>
+    <t>Spray buffer zones</t>
+  </si>
+  <si>
+    <t>Pesticide applications
+were avoided when
+conditions would lead
+to drift (e.g., winds
+exceed 7 mph,
+inversion conditions)
+And
+Low effective rates
+were used and nozzles
+were selected and
+maintained to deliver
+the largest
+recommended droplets
+of uniform size.</t>
+  </si>
+  <si>
+    <t>Take measures to mitigate drift</t>
+  </si>
+  <si>
+    <t>Some pesticides were
+stored during the winter
+And
+Best practices for
+pesticide storage were
+used – dry products
+were stored above
+liquid products, the
+distance between the
+storage site and the
+nearest pond, stream or
+well prevents
+contamination. Storage
+is located in a place
+where flooding is not a
+concern and the storage
+area had an
+impermeable floor to
+contain leaks, and only
+undamaged original
+containers were stored.</t>
+  </si>
+  <si>
+    <t>All workers were
+provided with pesticide
+safety training and
+required personal
+protective equipment
+(PPE)
+And
+Either a double-check
+valve was used when
+filling spray tanks with
+water or a six-inch air
+gap was maintained
+between the spray tank
+and water source.</t>
+  </si>
+  <si>
+    <t>Safety precautions for filling/mixing</t>
+  </si>
+  <si>
+    <t>Follow law for PPE</t>
+  </si>
+  <si>
+    <t>A pesticide emergency
+response plan was
+posted or binders are
+available in vehicles</t>
+  </si>
+  <si>
+    <t>Pesticide emergency response plan</t>
+  </si>
+  <si>
+    <t>Virus symptoms (e.g.,
+reduced yield, leaf
+discoloration, poor
+ripening) were
+monitored during the
+fall in the vineyard and
+infected areas were
+mapped, if applicable
+And
+The vineyard had been
+tested for the presence
+of economically
+important viruses (e.g.,
+leafroll, fanleaf, and
+red blotch) within the
+past three years, and
+virus testing samples
+were taken following
+lab sampling protocols
+And
+The economically
+important viruses in my
+region were known
+(e.g., leafroll, fanleaf,
+and red blotch).</t>
+  </si>
+  <si>
+    <t>Economically important viruses are known</t>
+  </si>
+  <si>
+    <t>Testing for viruses AND monitoring for virus symptoms</t>
+  </si>
+  <si>
+    <t>Monitor weekly for insects and mites</t>
+  </si>
+  <si>
+    <t>Calendar Spraying</t>
+  </si>
+  <si>
+    <t>Moths treated based on time of year or crop phenology</t>
+  </si>
+  <si>
+    <t>Monitor weekly for disease</t>
+  </si>
+  <si>
+    <t>Disease-monitoring records kept</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practices are used to reduce physical
+fruit damage and weather and growth
+stage was considered prior to applying
+any fungicides. </t>
+  </si>
+  <si>
+    <t>Cultural practices for bunch-rot "considered"</t>
+  </si>
+  <si>
+    <t>Monitor for weeds 1x per week</t>
+  </si>
+  <si>
+    <t>Weed monitoring records</t>
+  </si>
+  <si>
+    <t>Monitor for vertebrate pests monthly</t>
+  </si>
+  <si>
+    <t>Records of vertebrate pest monitoring</t>
   </si>
 </sst>
 </file>
@@ -7605,7 +8310,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8146,7 +8851,7 @@
         <v>983</v>
       </c>
       <c r="F22" t="s">
-        <v>2199</v>
+        <v>2341</v>
       </c>
       <c r="J22" t="s">
         <v>1939</v>
@@ -8173,6 +8878,32 @@
       </c>
       <c r="J23" t="s">
         <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2199</v>
+      </c>
+      <c r="I24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2344</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2345</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -8194,10 +8925,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S43" sqref="S43"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9243,3034 +9977,7 @@
   <dimension ref="A1:AD1048575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71:XFD71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>266</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>212</v>
-      </c>
-      <c r="U1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B5">
-        <v>1.2</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1509</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1509</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B8">
-        <v>2.1</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1514</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B9">
-        <v>2.1</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B10">
-        <v>2.1</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B11">
-        <v>2.1</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1509</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B12">
-        <v>2.1</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1509</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B13">
-        <v>2.1</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1525</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B14">
-        <v>2.1</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1509</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B15">
-        <v>2.1</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1529</v>
-      </c>
-      <c r="F15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1509</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B16">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1534</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1535</v>
-      </c>
-      <c r="K17" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B18">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1537</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1509</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B20">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="T20" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B21">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" t="s">
-        <v>1546</v>
-      </c>
-      <c r="V21" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B22">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1547</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="T22" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B23">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1549</v>
-      </c>
-      <c r="F23" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1509</v>
-      </c>
-      <c r="V23" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B24">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1551</v>
-      </c>
-      <c r="F24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B25">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1552</v>
-      </c>
-      <c r="F25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1509</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B26">
-        <v>4.3</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1555</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1554</v>
-      </c>
-      <c r="T26" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B27">
-        <v>4.3</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1556</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1554</v>
-      </c>
-      <c r="T27" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B28">
-        <v>4.3</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F28" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1509</v>
-      </c>
-      <c r="T28" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B29">
-        <v>4.3</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1563</v>
-      </c>
-      <c r="F29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1509</v>
-      </c>
-      <c r="T29" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B30">
-        <v>4.3</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1560</v>
-      </c>
-      <c r="F30" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1509</v>
-      </c>
-      <c r="T30" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B31">
-        <v>4.3</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F31" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1509</v>
-      </c>
-      <c r="S31" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B32">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1566</v>
-      </c>
-      <c r="F32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1554</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B33">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1568</v>
-      </c>
-      <c r="F33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1509</v>
-      </c>
-      <c r="M33" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B34">
-        <v>5.2</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1569</v>
-      </c>
-      <c r="F34" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1554</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B35">
-        <v>5.2</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1572</v>
-      </c>
-      <c r="F35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1554</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B36">
-        <v>5.2</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1554</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B37">
-        <v>8.1</v>
-      </c>
-      <c r="C37">
-        <v>14</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1577</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" t="s">
-        <v>1579</v>
-      </c>
-      <c r="M37" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B38">
-        <v>8.1</v>
-      </c>
-      <c r="C38">
-        <v>14</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1580</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B39">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C39">
-        <v>14</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1581</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" t="s">
-        <v>1583</v>
-      </c>
-      <c r="N39" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B40">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C40">
-        <v>14</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F40" t="s">
-        <v>157</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1509</v>
-      </c>
-      <c r="N40" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B41">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C41">
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1586</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="T41" t="s">
-        <v>36</v>
-      </c>
-      <c r="V41" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B42">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C42">
-        <v>14</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1588</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="S42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B43">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C43">
-        <v>14</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1590</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="R43" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B44">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C44">
-        <v>14</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1592</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="V44" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B45">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C45">
-        <v>14</v>
-      </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1593</v>
-      </c>
-      <c r="F45" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1509</v>
-      </c>
-      <c r="T45" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B46">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C46">
-        <v>14</v>
-      </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1595</v>
-      </c>
-      <c r="F46" t="s">
-        <v>157</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1509</v>
-      </c>
-      <c r="M46" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B47">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C47">
-        <v>14</v>
-      </c>
-      <c r="D47">
-        <v>7</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F47" t="s">
-        <v>157</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1509</v>
-      </c>
-      <c r="T47" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B48">
-        <v>8.5</v>
-      </c>
-      <c r="C48">
-        <v>15</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1598</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="T48" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B49">
-        <v>8.5</v>
-      </c>
-      <c r="C49">
-        <v>15</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1600</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="T49" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B50">
-        <v>8.6</v>
-      </c>
-      <c r="C50">
-        <v>15</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B51">
-        <v>8.6</v>
-      </c>
-      <c r="C51">
-        <v>15</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1605</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B52">
-        <v>8.6</v>
-      </c>
-      <c r="C52">
-        <v>15</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B53">
-        <v>8.6</v>
-      </c>
-      <c r="C53">
-        <v>15</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1612</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="O53" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B54">
-        <v>8.6</v>
-      </c>
-      <c r="C54">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1613</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B55">
-        <v>8.6</v>
-      </c>
-      <c r="C55">
-        <v>15</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1611</v>
-      </c>
-      <c r="F55" t="s">
-        <v>157</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1509</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B56">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C56">
-        <v>15</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1615</v>
-      </c>
-      <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="V56" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B57">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C57">
-        <v>15</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1619</v>
-      </c>
-      <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="V57" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B58">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C58">
-        <v>15</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1618</v>
-      </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="V58" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B59">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C59">
-        <v>15</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1621</v>
-      </c>
-      <c r="F59" t="s">
-        <v>157</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1509</v>
-      </c>
-      <c r="V59" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B60">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C60">
-        <v>15</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1623</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="O60" t="s">
-        <v>1625</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B61">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C61">
-        <v>15</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B62">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C62">
-        <v>15</v>
-      </c>
-      <c r="D62">
-        <v>3</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B63">
-        <v>12.1</v>
-      </c>
-      <c r="C63">
-        <v>17</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1630</v>
-      </c>
-      <c r="F63" t="s">
-        <v>157</v>
-      </c>
-      <c r="G63" t="s">
-        <v>1554</v>
-      </c>
-      <c r="P63" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B64">
-        <v>12.1</v>
-      </c>
-      <c r="C64">
-        <v>17</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1632</v>
-      </c>
-      <c r="F64" t="s">
-        <v>157</v>
-      </c>
-      <c r="G64" t="s">
-        <v>1554</v>
-      </c>
-      <c r="M64" t="s">
-        <v>1633</v>
-      </c>
-      <c r="P64" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B65">
-        <v>12.2</v>
-      </c>
-      <c r="C65">
-        <v>18</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1636</v>
-      </c>
-      <c r="F65" t="s">
-        <v>157</v>
-      </c>
-      <c r="G65" t="s">
-        <v>1554</v>
-      </c>
-      <c r="P65" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B66">
-        <v>12.2</v>
-      </c>
-      <c r="C66">
-        <v>18</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1641</v>
-      </c>
-      <c r="F66" t="s">
-        <v>157</v>
-      </c>
-      <c r="G66" t="s">
-        <v>1554</v>
-      </c>
-      <c r="K66" t="s">
-        <v>1638</v>
-      </c>
-      <c r="P66" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B67">
-        <v>12.2</v>
-      </c>
-      <c r="C67">
-        <v>18</v>
-      </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1640</v>
-      </c>
-      <c r="F67" t="s">
-        <v>157</v>
-      </c>
-      <c r="G67" t="s">
-        <v>1554</v>
-      </c>
-      <c r="K67" t="s">
-        <v>1642</v>
-      </c>
-      <c r="P67" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B68">
-        <v>12.2</v>
-      </c>
-      <c r="C68">
-        <v>18</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1639</v>
-      </c>
-      <c r="F68" t="s">
-        <v>157</v>
-      </c>
-      <c r="G68" t="s">
-        <v>1554</v>
-      </c>
-      <c r="P68" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B69">
-        <v>12.2</v>
-      </c>
-      <c r="C69">
-        <v>18</v>
-      </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F69" t="s">
-        <v>157</v>
-      </c>
-      <c r="G69" t="s">
-        <v>1554</v>
-      </c>
-      <c r="M69" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B70">
-        <v>12.2</v>
-      </c>
-      <c r="C70">
-        <v>18</v>
-      </c>
-      <c r="D70">
-        <v>6</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1647</v>
-      </c>
-      <c r="F70" t="s">
-        <v>157</v>
-      </c>
-      <c r="G70" t="s">
-        <v>1509</v>
-      </c>
-      <c r="P70" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="1048575" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1048575">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41709567-CB91-4AD9-9B12-F441D5E42A80}">
-  <dimension ref="A1:AD66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>266</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>212</v>
-      </c>
-      <c r="U1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1357</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1356</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1359</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1363</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1365</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1367</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1371</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1378</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1381</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1356</v>
-      </c>
-      <c r="N17" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C18">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1388</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1356</v>
-      </c>
-      <c r="N21" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C22">
-        <v>46</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1397</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1398</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C23">
-        <v>47</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1397</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1399</v>
-      </c>
-      <c r="M23" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C24">
-        <v>47</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1405</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1397</v>
-      </c>
-      <c r="M24" t="s">
-        <v>1401</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C25">
-        <v>47</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1403</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1397</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C26">
-        <v>57</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1397</v>
-      </c>
-      <c r="S26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C27">
-        <v>57</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1397</v>
-      </c>
-      <c r="N27" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C28">
-        <v>57</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1410</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1397</v>
-      </c>
-      <c r="V28" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <v>57</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1412</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1397</v>
-      </c>
-      <c r="O29" t="s">
-        <v>1413</v>
-      </c>
-      <c r="V29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C30">
-        <v>58</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1356</v>
-      </c>
-      <c r="V30" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <v>58</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1416</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C32">
-        <v>58</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1397</v>
-      </c>
-      <c r="M32" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C33">
-        <v>58</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1421</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1356</v>
-      </c>
-      <c r="V33" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C34">
-        <v>58</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1423</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1356</v>
-      </c>
-      <c r="N34" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C35">
-        <v>58</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1356</v>
-      </c>
-      <c r="N35" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C36">
-        <v>59</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C37">
-        <v>59</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1356</v>
-      </c>
-      <c r="N37" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C38">
-        <v>59</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C39">
-        <v>59</v>
-      </c>
-      <c r="D39">
-        <v>5</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C40">
-        <v>59</v>
-      </c>
-      <c r="D40">
-        <v>6</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1356</v>
-      </c>
-      <c r="V40" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C41">
-        <v>60</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="M41" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C42">
-        <v>60</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1441</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1356</v>
-      </c>
-      <c r="N42" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C43">
-        <v>60</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I43" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C44">
-        <v>60</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C45">
-        <v>60</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1356</v>
-      </c>
-      <c r="V45" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C46">
-        <v>60</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C47">
-        <v>61</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J47" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C48">
-        <v>61</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1356</v>
-      </c>
-      <c r="V48" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C49">
-        <v>61</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I49" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C50">
-        <v>61</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I50" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C51">
-        <v>61</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1356</v>
-      </c>
-      <c r="S51" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E52" t="s">
-        <v>1463</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1397</v>
-      </c>
-      <c r="K52" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E53" t="s">
-        <v>1465</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I53" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E54" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M54" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C55">
-        <v>66</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="P55" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C56">
-        <v>69</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="M56" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C57">
-        <v>71</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1476</v>
-      </c>
-      <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" t="s">
-        <v>1477</v>
-      </c>
-      <c r="P57" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C58">
-        <v>71</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1478</v>
-      </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="P58" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C59">
-        <v>71</v>
-      </c>
-      <c r="D59">
-        <v>3</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1480</v>
-      </c>
-      <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="P59" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C60">
-        <v>74</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="M60" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D61">
-        <v>3</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M61" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D62">
-        <v>4</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1487</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M62" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D63">
-        <v>5</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M63" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D64">
-        <v>8</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M64" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D65">
-        <v>9</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1493</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M65" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D66">
-        <v>10</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1495</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M66" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFB090F-534C-4D45-A54F-C68E5A72E53D}">
-  <dimension ref="A1:AD59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -12367,6 +10074,4066 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B5">
+        <v>1.2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B8">
+        <v>2.1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B9">
+        <v>2.1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B10">
+        <v>2.1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B11">
+        <v>2.1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B12">
+        <v>2.1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B13">
+        <v>2.1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B14">
+        <v>2.1</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B15">
+        <v>2.1</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1534</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1546</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1509</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B26">
+        <v>4.3</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1554</v>
+      </c>
+      <c r="T26" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B27">
+        <v>4.3</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1554</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B28">
+        <v>4.3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1509</v>
+      </c>
+      <c r="T28" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B29">
+        <v>4.3</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1509</v>
+      </c>
+      <c r="T29" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B30">
+        <v>4.3</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F30" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1509</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B31">
+        <v>4.3</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1509</v>
+      </c>
+      <c r="S31" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1554</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B33">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1509</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B34">
+        <v>5.2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B35">
+        <v>5.2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B36">
+        <v>5.2</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B37">
+        <v>8.1</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1579</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B38">
+        <v>8.1</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B39">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B40">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F40" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1509</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B41">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="T41" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B42">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="S42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B43">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B44">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="V44" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B45">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1509</v>
+      </c>
+      <c r="T45" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B46">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F46" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1509</v>
+      </c>
+      <c r="V46" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B47">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1509</v>
+      </c>
+      <c r="T47" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B48">
+        <v>8.5</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="T48" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B49">
+        <v>8.5</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="T49" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B50">
+        <v>8.6</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B51">
+        <v>8.6</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B52">
+        <v>8.6</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B53">
+        <v>8.6</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O53" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B54">
+        <v>8.6</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B55">
+        <v>8.6</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F55" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1509</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B56">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="V56" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B57">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="V57" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B58">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="V58" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B59">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1509</v>
+      </c>
+      <c r="V59" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B60">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="O60" t="s">
+        <v>1625</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B61">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B62">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B63">
+        <v>12.1</v>
+      </c>
+      <c r="C63">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F63" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1554</v>
+      </c>
+      <c r="P63" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B64">
+        <v>12.1</v>
+      </c>
+      <c r="C64">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F64" t="s">
+        <v>157</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1554</v>
+      </c>
+      <c r="M64" t="s">
+        <v>1633</v>
+      </c>
+      <c r="P64" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B65">
+        <v>12.2</v>
+      </c>
+      <c r="C65">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1554</v>
+      </c>
+      <c r="P65" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B66">
+        <v>12.2</v>
+      </c>
+      <c r="C66">
+        <v>18</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F66" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1638</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B67">
+        <v>12.2</v>
+      </c>
+      <c r="C67">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F67" t="s">
+        <v>157</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1642</v>
+      </c>
+      <c r="P67" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B68">
+        <v>12.2</v>
+      </c>
+      <c r="C68">
+        <v>18</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F68" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1554</v>
+      </c>
+      <c r="P68" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B69">
+        <v>12.2</v>
+      </c>
+      <c r="C69">
+        <v>18</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F69" t="s">
+        <v>157</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1554</v>
+      </c>
+      <c r="M69" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B70">
+        <v>12.2</v>
+      </c>
+      <c r="C70">
+        <v>18</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F70" t="s">
+        <v>157</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1509</v>
+      </c>
+      <c r="P70" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1048575" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1048575">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BBC440-7829-4307-8033-5C7F08A38A56}">
+  <dimension ref="A1:AD45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>212</v>
+      </c>
+      <c r="U1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2347</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>58</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>59</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2354</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>2356</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>2359</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2358</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2364</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>92</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>133</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>2439</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>134</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2373</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>135</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>139</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>2376</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>143</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>2378</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>144</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>145</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>148</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>2383</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>149</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>153</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2388</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>158</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>2390</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P21" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>159</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F22" t="s">
+        <v>157</v>
+      </c>
+      <c r="N22" t="s">
+        <v>2393</v>
+      </c>
+      <c r="V22" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>162</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>163</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F24" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>164</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F25" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2399</v>
+      </c>
+      <c r="V25" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>164</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>2445</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>166</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2404</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2402</v>
+      </c>
+      <c r="N27" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B28">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>168</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" t="s">
+        <v>2447</v>
+      </c>
+      <c r="O28" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>169</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>2406</v>
+      </c>
+      <c r="F29" t="s">
+        <v>157</v>
+      </c>
+      <c r="M29" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>170</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>2408</v>
+      </c>
+      <c r="F30" t="s">
+        <v>157</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>171</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>2410</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2411</v>
+      </c>
+      <c r="M31" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B32">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>173</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>2413</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B33">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>177</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>2415</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" t="s">
+        <v>2449</v>
+      </c>
+      <c r="O33" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>178</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="V34" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>179</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>2418</v>
+      </c>
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B36">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>182</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="V36" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B37">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>183</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="V37" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B38">
+        <v>27</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>2424</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="V38" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B39">
+        <v>28</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="V39" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B40">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>190</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>2428</v>
+      </c>
+      <c r="F40" t="s">
+        <v>157</v>
+      </c>
+      <c r="V40" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F41" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B42">
+        <v>31</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>2431</v>
+      </c>
+      <c r="F42" t="s">
+        <v>157</v>
+      </c>
+      <c r="P42" t="s">
+        <v>2433</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B43">
+        <v>32</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>2434</v>
+      </c>
+      <c r="F43" t="s">
+        <v>157</v>
+      </c>
+      <c r="K43" t="s">
+        <v>2435</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B44">
+        <v>34</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="S44" t="s">
+        <v>36</v>
+      </c>
+      <c r="T44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B45">
+        <v>35</v>
+      </c>
+      <c r="C45">
+        <v>199</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>2436</v>
+      </c>
+      <c r="F45" t="s">
+        <v>157</v>
+      </c>
+      <c r="M45" t="s">
+        <v>2437</v>
+      </c>
+      <c r="N45" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41709567-CB91-4AD9-9B12-F441D5E42A80}">
+  <dimension ref="A1:AD66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>212</v>
+      </c>
+      <c r="U1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C22">
+        <v>46</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1398</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C23">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1399</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C24">
+        <v>47</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1397</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1401</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C25">
+        <v>47</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1397</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C26">
+        <v>57</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1397</v>
+      </c>
+      <c r="S26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>57</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1397</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1397</v>
+      </c>
+      <c r="V28" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>57</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1397</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1413</v>
+      </c>
+      <c r="V29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>58</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1356</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>58</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C32">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1397</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>58</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1356</v>
+      </c>
+      <c r="V33" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>58</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>58</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C36">
+        <v>59</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>59</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>59</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>59</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>59</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1356</v>
+      </c>
+      <c r="V40" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>60</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N42" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C44">
+        <v>60</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>60</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1356</v>
+      </c>
+      <c r="V45" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>60</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>61</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>61</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1356</v>
+      </c>
+      <c r="V48" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C49">
+        <v>61</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C50">
+        <v>61</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C51">
+        <v>61</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1356</v>
+      </c>
+      <c r="S51" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C55">
+        <v>66</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C56">
+        <v>69</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C57">
+        <v>71</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1477</v>
+      </c>
+      <c r="P57" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C58">
+        <v>71</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="P58" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C59">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C60">
+        <v>74</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M61" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M62" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M63" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M64" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M65" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M66" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFB090F-534C-4D45-A54F-C68E5A72E53D}">
+  <dimension ref="A1:AD59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>212</v>
+      </c>
+      <c r="U1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1230</v>
       </c>
       <c r="B2">
@@ -13738,7 +15505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339E23D3-124A-4E66-B24C-A1938BE0CEF8}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
@@ -15090,7 +16857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81105A15-BCFC-499B-AD4D-FFB23EB8CC2B}">
   <dimension ref="A1:AD57"/>
   <sheetViews>
@@ -16369,7 +18136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6F04CE-3E88-49E1-8AAA-2AE53A627B47}">
   <dimension ref="A1:AD71"/>
   <sheetViews>
@@ -17907,18 +19674,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC6139F-24BB-42D9-A1A6-C4BD686CF2E5}">
-  <dimension ref="A1:AD51"/>
+  <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R41" sqref="R41"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18006,8 +19773,11 @@
       <c r="AD1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>732</v>
       </c>
@@ -18026,11 +19796,11 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AE2" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>732</v>
       </c>
@@ -18053,7 +19823,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>732</v>
       </c>
@@ -18076,7 +19846,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>732</v>
       </c>
@@ -18099,7 +19869,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>732</v>
       </c>
@@ -18122,7 +19892,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>732</v>
       </c>
@@ -18148,7 +19918,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>732</v>
       </c>
@@ -18174,7 +19944,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>732</v>
       </c>
@@ -18200,7 +19970,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>732</v>
       </c>
@@ -18226,7 +19996,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>732</v>
       </c>
@@ -18252,7 +20022,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>753</v>
       </c>
@@ -18275,7 +20045,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>753</v>
       </c>
@@ -18298,7 +20068,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>753</v>
       </c>
@@ -18324,7 +20094,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>753</v>
       </c>
@@ -18350,7 +20120,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>753</v>
       </c>
@@ -19249,7 +21019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620ED4A3-F279-4D5E-B1C2-7E15CAE276F3}">
   <dimension ref="A1:AD68"/>
   <sheetViews>
@@ -21087,658 +22857,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791B1BE1-D241-46C0-994A-9D98E127C536}">
-  <dimension ref="A1:AD29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>266</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>212</v>
-      </c>
-      <c r="U1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>473</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>2280</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2279</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2282</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2283</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2282</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2285</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2282</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2286</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2288</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2282</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2289</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" t="s">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2282</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2291</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>2292</v>
-      </c>
-      <c r="P7" t="s">
-        <v>2292</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2282</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2293</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" t="s">
-        <v>2295</v>
-      </c>
-      <c r="V8" t="s">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2296</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" t="s">
-        <v>2297</v>
-      </c>
-      <c r="V9" t="s">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2298</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2299</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2300</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>2301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C13">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2302</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2304</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C15">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2307</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2308</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <v>26</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2310</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="S17" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>26</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2311</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T18" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2312</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" t="s">
-        <v>2315</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2313</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C21">
-        <v>31</v>
-      </c>
-      <c r="D21">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2316</v>
-      </c>
-      <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="V21" t="s">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C22">
-        <v>31</v>
-      </c>
-      <c r="D22">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2318</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" t="s">
-        <v>2320</v>
-      </c>
-      <c r="M22" t="s">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C23">
-        <v>31</v>
-      </c>
-      <c r="D23">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2321</v>
-      </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>2322</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24">
-        <v>32</v>
-      </c>
-      <c r="D24">
-        <v>39</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>2323</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>38</v>
-      </c>
-      <c r="D25">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2325</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>44</v>
-      </c>
-      <c r="D26">
-        <v>30</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2327</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>2328</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C27">
-        <v>44</v>
-      </c>
-      <c r="D27">
-        <v>32</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2329</v>
-      </c>
-      <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" t="s">
-        <v>2330</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>2330</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C28">
-        <v>44</v>
-      </c>
-      <c r="D28">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2331</v>
-      </c>
-      <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>2334</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <v>44</v>
-      </c>
-      <c r="D29">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2332</v>
-      </c>
-      <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>2333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E202CCC5-55BB-470D-8D6B-9F6F0EA061AC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21792,12 +22916,668 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791B1BE1-D241-46C0-994A-9D98E127C536}">
+  <dimension ref="A1:AD29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>212</v>
+      </c>
+      <c r="U1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2283</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2285</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2338</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2288</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2289</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2291</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2292</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2292</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2293</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2295</v>
+      </c>
+      <c r="V8" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2296</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2297</v>
+      </c>
+      <c r="V9" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2298</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2302</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2304</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2307</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2311</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2313</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2316</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2318</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2320</v>
+      </c>
+      <c r="M22" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2321</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>39</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2325</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2327</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s">
+        <v>2330</v>
+      </c>
+      <c r="P27" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>44</v>
+      </c>
+      <c r="D28">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2332</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043ED559-DAA0-431A-9B04-A3732536D142}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22006,8 +23786,8 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="N6">
-        <v>1</v>
+      <c r="N6" t="s">
+        <v>2340</v>
       </c>
       <c r="W6" t="s">
         <v>52</v>
@@ -23109,7 +24889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE8C26C-BA76-4400-AA32-6C32C966C187}">
   <dimension ref="A1:AC51"/>
   <sheetViews>
@@ -24526,12 +26306,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DE5D01-A5EC-488E-AC31-A7E5A7E4C258}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24786,7 +26566,7 @@
       <c r="L10" t="s">
         <v>310</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="P10" t="s">
         <v>310</v>
       </c>
     </row>
@@ -24818,7 +26598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0A4618-C118-4F5A-9CF1-ECF421DE8C53}">
   <dimension ref="A1:AC55"/>
   <sheetViews>
@@ -26331,7 +28111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF235F98-A2A8-41AB-8F43-8A15F6C252EC}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
@@ -26801,12 +28581,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170A1088-FF14-4F65-B676-FDC93F26339E}">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29205,7 +30985,7 @@
   <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -30209,7 +31989,7 @@
   <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
@@ -32821,9 +34601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5969056-05CF-4267-8AC7-CF6E2725BCC3}">
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Cert_coding.xlsx
+++ b/data/Cert_coding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Cert_standards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CDB804-98FE-4B6B-A39A-EB9C67AFBC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E24C439-B1CE-40A4-86DA-731ADA912720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="11" xr2:uid="{1EC9569E-3B54-4671-BB69-0CEE5D05B2FB}"/>
+    <workbookView xWindow="28680" yWindow="600" windowWidth="19440" windowHeight="15000" firstSheet="5" activeTab="9" xr2:uid="{1EC9569E-3B54-4671-BB69-0CEE5D05B2FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="3" r:id="rId1"/>
@@ -22,52 +22,53 @@
     <sheet name="Global GAPS" sheetId="20" r:id="rId7"/>
     <sheet name="CAFE" sheetId="19" r:id="rId8"/>
     <sheet name="RSPO" sheetId="18" r:id="rId9"/>
-    <sheet name="Fair Trade USA" sheetId="17" r:id="rId10"/>
-    <sheet name="LIVE" sheetId="15" r:id="rId11"/>
-    <sheet name="CCSW" sheetId="28" r:id="rId12"/>
-    <sheet name="SIP" sheetId="14" r:id="rId13"/>
-    <sheet name="LODI Rules" sheetId="13" r:id="rId14"/>
-    <sheet name="FlorVerde" sheetId="12" r:id="rId15"/>
-    <sheet name="Eco Apple Stonefruit" sheetId="11" r:id="rId16"/>
-    <sheet name="Red Tomato Eco Apple" sheetId="10" r:id="rId17"/>
-    <sheet name="Red Tomato Eco" sheetId="9" r:id="rId18"/>
-    <sheet name="Protected Harvest Citrus" sheetId="8" r:id="rId19"/>
-    <sheet name="Fair Trade Intl" sheetId="27" r:id="rId20"/>
-    <sheet name="BCI" sheetId="1" r:id="rId21"/>
-    <sheet name="BloomCheck" sheetId="2" r:id="rId22"/>
-    <sheet name="CMIA" sheetId="4" r:id="rId23"/>
-    <sheet name="HealthyGrown" sheetId="5" r:id="rId24"/>
-    <sheet name="Food Alliance" sheetId="6" r:id="rId25"/>
-    <sheet name="Rainforest Alliance" sheetId="7" r:id="rId26"/>
+    <sheet name="Long Island Sustainable" sheetId="29" r:id="rId10"/>
+    <sheet name="Fair Trade USA" sheetId="17" r:id="rId11"/>
+    <sheet name="LIVE" sheetId="15" r:id="rId12"/>
+    <sheet name="CCSW" sheetId="28" r:id="rId13"/>
+    <sheet name="SIP" sheetId="14" r:id="rId14"/>
+    <sheet name="LODI Rules" sheetId="13" r:id="rId15"/>
+    <sheet name="FlorVerde" sheetId="12" r:id="rId16"/>
+    <sheet name="Eco Apple Stonefruit" sheetId="11" r:id="rId17"/>
+    <sheet name="Red Tomato Eco Apple" sheetId="10" r:id="rId18"/>
+    <sheet name="Red Tomato Eco" sheetId="9" r:id="rId19"/>
+    <sheet name="Protected Harvest Citrus" sheetId="8" r:id="rId20"/>
+    <sheet name="Fair Trade Intl" sheetId="27" r:id="rId21"/>
+    <sheet name="BCI" sheetId="1" r:id="rId22"/>
+    <sheet name="BloomCheck" sheetId="2" r:id="rId23"/>
+    <sheet name="CMIA" sheetId="4" r:id="rId24"/>
+    <sheet name="HealthyGrown" sheetId="5" r:id="rId25"/>
+    <sheet name="Food Alliance" sheetId="6" r:id="rId26"/>
+    <sheet name="Rainforest Alliance" sheetId="7" r:id="rId27"/>
   </sheets>
   <definedNames>
-    <definedName name="_edn1" localSheetId="24">'Food Alliance'!$D$14</definedName>
-    <definedName name="_ednref1" localSheetId="24">'Food Alliance'!$D$11</definedName>
-    <definedName name="_Toc17767377" localSheetId="24">'Food Alliance'!$D$4</definedName>
-    <definedName name="_Toc17767378" localSheetId="24">'Food Alliance'!$D$14</definedName>
-    <definedName name="_Toc324765676" localSheetId="24">'Food Alliance'!$D$2</definedName>
-    <definedName name="_Toc324765677" localSheetId="24">'Food Alliance'!$D$3</definedName>
-    <definedName name="_Toc324765679" localSheetId="24">'Food Alliance'!$D$6</definedName>
-    <definedName name="_Toc324765680" localSheetId="24">'Food Alliance'!$D$7</definedName>
-    <definedName name="_Toc324765681" localSheetId="24">'Food Alliance'!$D$8</definedName>
-    <definedName name="_Toc324765682" localSheetId="24">'Food Alliance'!$D$9</definedName>
-    <definedName name="_Toc324765683" localSheetId="24">'Food Alliance'!$D$10</definedName>
-    <definedName name="_Toc324765684" localSheetId="24">'Food Alliance'!$D$11</definedName>
-    <definedName name="_Toc324765685" localSheetId="24">'Food Alliance'!$D$12</definedName>
-    <definedName name="_Toc324765686" localSheetId="24">'Food Alliance'!$D$13</definedName>
-    <definedName name="_Toc345660284" localSheetId="24">'Food Alliance'!$D$5</definedName>
-    <definedName name="_Toc345660294" localSheetId="24">'Food Alliance'!$D$15</definedName>
-    <definedName name="_Toc459286892" localSheetId="24">'Food Alliance'!$A$2</definedName>
-    <definedName name="Check144" localSheetId="24">'Food Alliance'!$D$8</definedName>
-    <definedName name="Check145" localSheetId="24">'Food Alliance'!$D$9</definedName>
-    <definedName name="Check146" localSheetId="24">'Food Alliance'!$D$10</definedName>
-    <definedName name="Check147" localSheetId="24">'Food Alliance'!$D$11</definedName>
-    <definedName name="Check148" localSheetId="24">'Food Alliance'!$D$12</definedName>
-    <definedName name="Check149" localSheetId="24">'Food Alliance'!$D$13</definedName>
-    <definedName name="Check150" localSheetId="24">'Food Alliance'!$D$14</definedName>
-    <definedName name="Check151" localSheetId="24">'Food Alliance'!$D$15</definedName>
-    <definedName name="Check152" localSheetId="24">'Food Alliance'!$D$16</definedName>
-    <definedName name="Check153" localSheetId="24">'Food Alliance'!$D$17</definedName>
+    <definedName name="_edn1" localSheetId="25">'Food Alliance'!$D$14</definedName>
+    <definedName name="_ednref1" localSheetId="25">'Food Alliance'!$D$11</definedName>
+    <definedName name="_Toc17767377" localSheetId="25">'Food Alliance'!$D$4</definedName>
+    <definedName name="_Toc17767378" localSheetId="25">'Food Alliance'!$D$14</definedName>
+    <definedName name="_Toc324765676" localSheetId="25">'Food Alliance'!$D$2</definedName>
+    <definedName name="_Toc324765677" localSheetId="25">'Food Alliance'!$D$3</definedName>
+    <definedName name="_Toc324765679" localSheetId="25">'Food Alliance'!$D$6</definedName>
+    <definedName name="_Toc324765680" localSheetId="25">'Food Alliance'!$D$7</definedName>
+    <definedName name="_Toc324765681" localSheetId="25">'Food Alliance'!$D$8</definedName>
+    <definedName name="_Toc324765682" localSheetId="25">'Food Alliance'!$D$9</definedName>
+    <definedName name="_Toc324765683" localSheetId="25">'Food Alliance'!$D$10</definedName>
+    <definedName name="_Toc324765684" localSheetId="25">'Food Alliance'!$D$11</definedName>
+    <definedName name="_Toc324765685" localSheetId="25">'Food Alliance'!$D$12</definedName>
+    <definedName name="_Toc324765686" localSheetId="25">'Food Alliance'!$D$13</definedName>
+    <definedName name="_Toc345660284" localSheetId="25">'Food Alliance'!$D$5</definedName>
+    <definedName name="_Toc345660294" localSheetId="25">'Food Alliance'!$D$15</definedName>
+    <definedName name="_Toc459286892" localSheetId="25">'Food Alliance'!$A$2</definedName>
+    <definedName name="Check144" localSheetId="25">'Food Alliance'!$D$8</definedName>
+    <definedName name="Check145" localSheetId="25">'Food Alliance'!$D$9</definedName>
+    <definedName name="Check146" localSheetId="25">'Food Alliance'!$D$10</definedName>
+    <definedName name="Check147" localSheetId="25">'Food Alliance'!$D$11</definedName>
+    <definedName name="Check148" localSheetId="25">'Food Alliance'!$D$12</definedName>
+    <definedName name="Check149" localSheetId="25">'Food Alliance'!$D$13</definedName>
+    <definedName name="Check150" localSheetId="25">'Food Alliance'!$D$14</definedName>
+    <definedName name="Check151" localSheetId="25">'Food Alliance'!$D$15</definedName>
+    <definedName name="Check152" localSheetId="25">'Food Alliance'!$D$16</definedName>
+    <definedName name="Check153" localSheetId="25">'Food Alliance'!$D$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5655" uniqueCount="2451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5943" uniqueCount="2585">
   <si>
     <t>Section</t>
   </si>
@@ -7840,6 +7841,409 @@
   </si>
   <si>
     <t>Records of vertebrate pest monitoring</t>
+  </si>
+  <si>
+    <t>LISW</t>
+  </si>
+  <si>
+    <t>Long Island Sustainable Winegrowing</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>Is certifi ed plant material used for vinifera and hybrid selection where possible?</t>
+  </si>
+  <si>
+    <t>A management plan is in place to reduce the use of pesticides and fertilizers with high leaching potential, and appropriate herbicide application rates are used to limit movement.</t>
+  </si>
+  <si>
+    <t>Soil Management</t>
+  </si>
+  <si>
+    <t>Leaching Plan Exists</t>
+  </si>
+  <si>
+    <t>Cover Cropping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the frequency
+of mowing? </t>
+  </si>
+  <si>
+    <t>Cover Cropping: mowing less frequently</t>
+  </si>
+  <si>
+    <t>Vineyard Management</t>
+  </si>
+  <si>
+    <t>Disease-Free or certified planting stock</t>
+  </si>
+  <si>
+    <t>Is fungal resistance considered when selecting varieties for planting?</t>
+  </si>
+  <si>
+    <t>Fungal Resistance "Considered" for planting stock</t>
+  </si>
+  <si>
+    <t>Does a map of the Vineyard Exists</t>
+  </si>
+  <si>
+    <t>Map of Vineyard Exists</t>
+  </si>
+  <si>
+    <t>Is vineyard monitored and mapped for weeds?</t>
+  </si>
+  <si>
+    <t>Weed Management</t>
+  </si>
+  <si>
+    <t>Monitoring of Weeds</t>
+  </si>
+  <si>
+    <t>What percent of the area between rows contains permanent ground cover?</t>
+  </si>
+  <si>
+    <t>Permenant Ground Cover between rows</t>
+  </si>
+  <si>
+    <t>Are non-chemical weed management techniques being used?</t>
+  </si>
+  <si>
+    <t>Non-chemical Weed control, limit use of herbicides</t>
+  </si>
+  <si>
+    <t>In planning a weed control program, how are control methods and rates chosen?</t>
+  </si>
+  <si>
+    <t>Herbicides Selected based on size and species</t>
+  </si>
+  <si>
+    <t>Are the leaching potential of herbicides and soil characteristics considered in choosing soil-applied herbicides?</t>
+  </si>
+  <si>
+    <t>Limit use of herbicides wth leaching potential</t>
+  </si>
+  <si>
+    <t>Is the herbicide sprayer calibrated properly?</t>
+  </si>
+  <si>
+    <t>Are residual broadleaf and grass herbicides rotated to reduce the potential for resistant weeds?</t>
+  </si>
+  <si>
+    <t>What types of postemergence herbicide are used?</t>
+  </si>
+  <si>
+    <t>Credit for lower toxicity herbicides</t>
+  </si>
+  <si>
+    <t>Limit # of herbicide applications</t>
+  </si>
+  <si>
+    <t>How often are postemergence herbicides applied?</t>
+  </si>
+  <si>
+    <t>Is spot treatment of visible weeds employed to reduce the total amount of postemergence herbicide used?</t>
+  </si>
+  <si>
+    <t>Spot Spraying</t>
+  </si>
+  <si>
+    <t>What type of canopy sprayer is used?</t>
+  </si>
+  <si>
+    <t>Pest Management</t>
+  </si>
+  <si>
+    <t>Low-drift sprayer</t>
+  </si>
+  <si>
+    <t>Are the selected nozzles appropriate for use? Are they replaced when worn?</t>
+  </si>
+  <si>
+    <t>Replace Nozels When Worn ; right size for canopy sprayer</t>
+  </si>
+  <si>
+    <t>Is the canopy sprayer calibrated properly?</t>
+  </si>
+  <si>
+    <t>Don't spray in High winds</t>
+  </si>
+  <si>
+    <t>Are environmental conditions considered before deciding to spray?</t>
+  </si>
+  <si>
+    <t>Is the canopy sprayer maintained properly</t>
+  </si>
+  <si>
+    <t>Sprayer is Maintained</t>
+  </si>
+  <si>
+    <t>Is pruning done in a way to minimize overwintering pathogens and insects?</t>
+  </si>
+  <si>
+    <t>Prune for Pest management</t>
+  </si>
+  <si>
+    <t>Can the Vineyard Manager identify Eutypa dieback symptoms</t>
+  </si>
+  <si>
+    <t>Manager can Identify Dieback symptoms</t>
+  </si>
+  <si>
+    <t>Can the Vineyard Manager identify symptoms of crown gall infection?</t>
+  </si>
+  <si>
+    <t>manager can identify gall infection symptoms</t>
+  </si>
+  <si>
+    <t>Are dormant fungicide sprays applied?</t>
+  </si>
+  <si>
+    <t>Limit Dormant Fungicide Spray</t>
+  </si>
+  <si>
+    <t>Are proper canopy management practices followed to minimize fungal disease pressure?</t>
+  </si>
+  <si>
+    <t>Manage Canopy for less disease</t>
+  </si>
+  <si>
+    <t>When planning a fungal disease management program, is block history taken into account?</t>
+  </si>
+  <si>
+    <t>Consider block history for fungus management</t>
+  </si>
+  <si>
+    <t>Can the Vineyard Manager Identify fungal and viral disease symptoms on shoots, leaves and fruit?</t>
+  </si>
+  <si>
+    <t>Manager can identify disease symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How are virus-infected vines dealt with? </t>
+  </si>
+  <si>
+    <t>Remove virus-infected vines</t>
+  </si>
+  <si>
+    <t>Is scouting done for fungal and viral diseases?</t>
+  </si>
+  <si>
+    <t>Scout for disease</t>
+  </si>
+  <si>
+    <t>Does the Vineyard Manager provide or arrange for training of fi eld staff in disease and insect identifi cation?</t>
+  </si>
+  <si>
+    <t>Staff are trained to identify insects and disease</t>
+  </si>
+  <si>
+    <t>Are fungicides with low leaching potential selected for use?</t>
+  </si>
+  <si>
+    <t>Avoid fungicides with high leaching risk</t>
+  </si>
+  <si>
+    <t>Where possible, are reduced risk fungicides, biopesticides, minimum risk fungicides and/or organic fungicides used?</t>
+  </si>
+  <si>
+    <t>Use reduced-risk pesticides and fungicides</t>
+  </si>
+  <si>
+    <t>Is a Botrytis control program in place for susceptible varieties</t>
+  </si>
+  <si>
+    <t>cultural controls for Botrytis</t>
+  </si>
+  <si>
+    <t>Can the Vineyard Manager identify insect and mite pests and the damage they cause?</t>
+  </si>
+  <si>
+    <t>Manager can identify insect pests and damage</t>
+  </si>
+  <si>
+    <t>Are dormant miticide sprays applied?</t>
+  </si>
+  <si>
+    <t>Limit or eliminate dormant miticide sprays</t>
+  </si>
+  <si>
+    <t>Does scouting for insect and mite pests take place?</t>
+  </si>
+  <si>
+    <t>Scouting for insect and mite pests</t>
+  </si>
+  <si>
+    <t>Are insect/mite thresholds considered when making a treatment decision?</t>
+  </si>
+  <si>
+    <t>Use thresholds</t>
+  </si>
+  <si>
+    <t>Is spot treatment used for insect/mite infestations</t>
+  </si>
+  <si>
+    <t>spot treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where practical, are reduced risk, minimum risk and/or organic insecticides and miticides or biopesticides used? </t>
+  </si>
+  <si>
+    <t>use biopesticides</t>
+  </si>
+  <si>
+    <t>Is the impact of a material on European Red Mite (ERM) predators considered when making a treatment decision?</t>
+  </si>
+  <si>
+    <t>Consider impact of pesticides on predators</t>
+  </si>
+  <si>
+    <t>Are mancozeb products used in a way that minimizes their impact on ERM predators?</t>
+  </si>
+  <si>
+    <t>Mancozeb limited during bloom</t>
+  </si>
+  <si>
+    <t>What type of storage shelving is in place?</t>
+  </si>
+  <si>
+    <t>Proper Shelving for pesticides</t>
+  </si>
+  <si>
+    <t>What is the condition of the floor in the pesticide storage area?</t>
+  </si>
+  <si>
+    <t>Impermeable Floor for pesticide storage</t>
+  </si>
+  <si>
+    <t>What security measures are taken at the storage area?</t>
+  </si>
+  <si>
+    <t>Storage area is secure</t>
+  </si>
+  <si>
+    <t>What is the storage duration of pesticides?</t>
+  </si>
+  <si>
+    <t>Avoid Long-term storage of pesticides</t>
+  </si>
+  <si>
+    <t>What is the condition of the containers?</t>
+  </si>
+  <si>
+    <t>Pesticides properly labeled</t>
+  </si>
+  <si>
+    <t>What is the proximity of the mixing/ loading area to wells, surface water and watercourses?</t>
+  </si>
+  <si>
+    <t>Load and mix far from water</t>
+  </si>
+  <si>
+    <t>Is a spill kit available?</t>
+  </si>
+  <si>
+    <t>Materials for cleaning spills are available</t>
+  </si>
+  <si>
+    <t>Spills are cleaned immediately</t>
+  </si>
+  <si>
+    <t>How are spills handled?</t>
+  </si>
+  <si>
+    <t>What type of mixing and loading area is used?</t>
+  </si>
+  <si>
+    <t>Loading area has spill precautions</t>
+  </si>
+  <si>
+    <t>What is the water source for pesticide applications? Is a proper antibackfl ow device in place?</t>
+  </si>
+  <si>
+    <t>For filling sprayers- backflow prevention and use non-potable well</t>
+  </si>
+  <si>
+    <t>Is fi lling supervised by a certifi ed applicator?</t>
+  </si>
+  <si>
+    <t>Loading and mixing supervised by certified applicator</t>
+  </si>
+  <si>
+    <t>How is the sprayer cleaned and how is rinsate disposal handled?</t>
+  </si>
+  <si>
+    <t>Rinsate handled safely</t>
+  </si>
+  <si>
+    <t>Is an inspection and emergency plan in place?</t>
+  </si>
+  <si>
+    <t>Emergency safety plan</t>
+  </si>
+  <si>
+    <t>How is the disposal of pesticide containers handled?</t>
+  </si>
+  <si>
+    <t>Containers disposed of safely</t>
+  </si>
+  <si>
+    <t>What is done with unwanted or banned pesticides</t>
+  </si>
+  <si>
+    <t>Participate in pesticide return programs</t>
+  </si>
+  <si>
+    <t>What is the distance of spray application from water bodies?</t>
+  </si>
+  <si>
+    <t>spray buffer</t>
+  </si>
+  <si>
+    <t>How well are pesticide records kept?</t>
+  </si>
+  <si>
+    <t>pesticide records are kept</t>
+  </si>
+  <si>
+    <t>Does the Vineyard Manager have these essential publications?</t>
+  </si>
+  <si>
+    <t>Manager has recommended publications on IPM</t>
+  </si>
+  <si>
+    <t>Continueing education</t>
+  </si>
+  <si>
+    <t>Does the Vineyard Manager have any of these useful publications?</t>
+  </si>
+  <si>
+    <t>Ditto to previous, not recorded</t>
+  </si>
+  <si>
+    <t>Does the Vineyard Manager subscribe to industry newsletters?</t>
+  </si>
+  <si>
+    <t>Manager subscribes to newsletters</t>
+  </si>
+  <si>
+    <t>Does the Vineyard Manager subscribe to trade magazines?</t>
+  </si>
+  <si>
+    <t>Manager subscribes to trade magazines</t>
+  </si>
+  <si>
+    <t>Manager attends grower meetings</t>
+  </si>
+  <si>
+    <t>Manager attends IPM meetings</t>
+  </si>
+  <si>
+    <t>Does the Vineyard Manager attend other meetings specifi cally pest or pesticide management?</t>
+  </si>
+  <si>
+    <t>Does the Vineyard Manager Attend grower meetings?</t>
   </si>
 </sst>
 </file>
@@ -8310,7 +8714,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8906,6 +9310,17 @@
         <v>2345</v>
       </c>
     </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2453</v>
+      </c>
+    </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J31" t="s">
         <v>2189</v>
@@ -8920,6 +9335,1306 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F120826A-0506-4B9A-8D51-393125BA6502}">
+  <dimension ref="A1:AD66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q44" sqref="Q44:Q58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>212</v>
+      </c>
+      <c r="U1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2459</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2454</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C6">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2463</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C7">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2465</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2467</v>
+      </c>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C10">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2472</v>
+      </c>
+      <c r="F10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2474</v>
+      </c>
+      <c r="F11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C12">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2478</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="V13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2480</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C16">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C17">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="V17" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="V18" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2489</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="V19" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="V20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C21">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="V21" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C22">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="V22" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C23">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2496</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C24">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2498</v>
+      </c>
+      <c r="F24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C25">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2500</v>
+      </c>
+      <c r="F25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C26">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2502</v>
+      </c>
+      <c r="F26" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C27">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2504</v>
+      </c>
+      <c r="F27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C28">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C29">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="M29" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C30">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2510</v>
+      </c>
+      <c r="F30" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C31">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C32">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2514</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="M32" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C33">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2516</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="L33" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C34">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="L34" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C35">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="I35" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C36">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2522</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="M36" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C37">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2524</v>
+      </c>
+      <c r="F37" t="s">
+        <v>157</v>
+      </c>
+      <c r="L37" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C38">
+        <v>97</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2526</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C39">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F39" t="s">
+        <v>157</v>
+      </c>
+      <c r="N39" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C40">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="V40" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C41">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2532</v>
+      </c>
+      <c r="F41" t="s">
+        <v>150</v>
+      </c>
+      <c r="V41" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C42">
+        <v>99</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2534</v>
+      </c>
+      <c r="F42" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L42" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C43">
+        <v>99</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2536</v>
+      </c>
+      <c r="F43" t="s">
+        <v>150</v>
+      </c>
+      <c r="L43" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44">
+        <v>106</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F44" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C45">
+        <v>106</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46">
+        <v>107</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47">
+        <v>107</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F47" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2546</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49">
+        <v>108</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F49" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50">
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F50" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C51">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F51" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52">
+        <v>109</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53">
+        <v>110</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54">
+        <v>111</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2558</v>
+      </c>
+      <c r="F54" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F55" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>253</v>
+      </c>
+      <c r="C56">
+        <v>111</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F56" t="s">
+        <v>150</v>
+      </c>
+      <c r="K56" t="s">
+        <v>2563</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57">
+        <v>112</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F57" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58">
+        <v>113</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F58" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59">
+        <v>114</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+      <c r="V59" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60">
+        <v>114</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="O60" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C61">
+        <v>116</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F61" t="s">
+        <v>150</v>
+      </c>
+      <c r="M61" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C62">
+        <v>117</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F62" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C63">
+        <v>118</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F63" t="s">
+        <v>150</v>
+      </c>
+      <c r="M63" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>118</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2579</v>
+      </c>
+      <c r="M64" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>119</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2584</v>
+      </c>
+      <c r="M65" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>119</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2583</v>
+      </c>
+      <c r="M66" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B956D9D-C96F-473C-824B-C09A8474B065}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
@@ -9972,7 +11687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAFDA1E-3559-4166-9561-6BC73605F134}">
   <dimension ref="A1:AD1048575"/>
   <sheetViews>
@@ -11711,12 +13426,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BBC440-7829-4307-8033-5C7F08A38A56}">
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -12744,7 +14459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41709567-CB91-4AD9-9B12-F441D5E42A80}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
@@ -14032,7 +15747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFB090F-534C-4D45-A54F-C68E5A72E53D}">
   <dimension ref="A1:AD59"/>
   <sheetViews>
@@ -15505,7 +17220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339E23D3-124A-4E66-B24C-A1938BE0CEF8}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
@@ -16857,7 +18572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81105A15-BCFC-499B-AD4D-FFB23EB8CC2B}">
   <dimension ref="A1:AD57"/>
   <sheetViews>
@@ -18136,7 +19851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6F04CE-3E88-49E1-8AAA-2AE53A627B47}">
   <dimension ref="A1:AD71"/>
   <sheetViews>
@@ -19674,7 +21389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC6139F-24BB-42D9-A1A6-C4BD686CF2E5}">
   <dimension ref="A1:AE51"/>
   <sheetViews>
@@ -21012,1844 +22727,6 @@
       </c>
       <c r="Q51" t="s">
         <v>835</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620ED4A3-F279-4D5E-B1C2-7E15CAE276F3}">
-  <dimension ref="A1:AD68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>266</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>212</v>
-      </c>
-      <c r="U1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>590</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>593</v>
-      </c>
-      <c r="F3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>590</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>595</v>
-      </c>
-      <c r="F4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="V4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>590</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>597</v>
-      </c>
-      <c r="F5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="P5" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>590</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>599</v>
-      </c>
-      <c r="F6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="P6" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>590</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>601</v>
-      </c>
-      <c r="F7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="V7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>590</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>603</v>
-      </c>
-      <c r="F8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>590</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>605</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" t="s">
-        <v>606</v>
-      </c>
-      <c r="O9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>590</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>608</v>
-      </c>
-      <c r="F10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>590</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>611</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>590</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>613</v>
-      </c>
-      <c r="F12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="O12" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>590</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>614</v>
-      </c>
-      <c r="F13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>590</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>616</v>
-      </c>
-      <c r="F14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>590</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>617</v>
-      </c>
-      <c r="F15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>590</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>619</v>
-      </c>
-      <c r="F16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>590</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>623</v>
-      </c>
-      <c r="F17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>590</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>624</v>
-      </c>
-      <c r="F18" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>590</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>626</v>
-      </c>
-      <c r="F19" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>590</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>628</v>
-      </c>
-      <c r="F20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="W20" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>590</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>630</v>
-      </c>
-      <c r="F21" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="I21" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>590</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>632</v>
-      </c>
-      <c r="F22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>590</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>634</v>
-      </c>
-      <c r="F23" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="V23" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>590</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>636</v>
-      </c>
-      <c r="F24" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>590</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>638</v>
-      </c>
-      <c r="F25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="J25" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>590</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>12</v>
-      </c>
-      <c r="D26">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>640</v>
-      </c>
-      <c r="F26" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="T26" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>590</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>642</v>
-      </c>
-      <c r="F27" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="W27" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>590</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>644</v>
-      </c>
-      <c r="F28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="W28" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>590</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
-      </c>
-      <c r="D29">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>645</v>
-      </c>
-      <c r="F29" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="W29" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>590</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>12</v>
-      </c>
-      <c r="D30">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>648</v>
-      </c>
-      <c r="F30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="I30" t="s">
-        <v>649</v>
-      </c>
-      <c r="V30" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>590</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>13</v>
-      </c>
-      <c r="D31">
-        <v>28</v>
-      </c>
-      <c r="E31" t="s">
-        <v>651</v>
-      </c>
-      <c r="F31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>590</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>13</v>
-      </c>
-      <c r="D32">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>652</v>
-      </c>
-      <c r="F32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="I32" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>590</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>13</v>
-      </c>
-      <c r="D33">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
-        <v>654</v>
-      </c>
-      <c r="F33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>590</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>13</v>
-      </c>
-      <c r="D34">
-        <v>31</v>
-      </c>
-      <c r="E34" t="s">
-        <v>656</v>
-      </c>
-      <c r="F34" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="M34" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>590</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>13</v>
-      </c>
-      <c r="D35">
-        <v>32</v>
-      </c>
-      <c r="E35" t="s">
-        <v>658</v>
-      </c>
-      <c r="F35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="S35" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>590</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>13</v>
-      </c>
-      <c r="D36">
-        <v>33</v>
-      </c>
-      <c r="F36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>590</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>13</v>
-      </c>
-      <c r="D37">
-        <v>34</v>
-      </c>
-      <c r="F37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>590</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>13</v>
-      </c>
-      <c r="D38">
-        <v>35</v>
-      </c>
-      <c r="E38" t="s">
-        <v>660</v>
-      </c>
-      <c r="F38" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="V38" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>590</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>13</v>
-      </c>
-      <c r="D39">
-        <v>36</v>
-      </c>
-      <c r="E39" t="s">
-        <v>662</v>
-      </c>
-      <c r="F39" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="V39" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>590</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>14</v>
-      </c>
-      <c r="D40">
-        <v>37</v>
-      </c>
-      <c r="E40" t="s">
-        <v>664</v>
-      </c>
-      <c r="F40" t="s">
-        <v>157</v>
-      </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="I40" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>590</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41">
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <v>39</v>
-      </c>
-      <c r="E41" t="s">
-        <v>666</v>
-      </c>
-      <c r="F41" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="V41" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>590</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>14</v>
-      </c>
-      <c r="D42">
-        <v>40</v>
-      </c>
-      <c r="E42" t="s">
-        <v>668</v>
-      </c>
-      <c r="F42" t="s">
-        <v>157</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="R42" t="s">
-        <v>670</v>
-      </c>
-      <c r="V42" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>590</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>14</v>
-      </c>
-      <c r="D43">
-        <v>41</v>
-      </c>
-      <c r="E43" t="s">
-        <v>671</v>
-      </c>
-      <c r="F43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="I43" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>590</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>14</v>
-      </c>
-      <c r="D44">
-        <v>42</v>
-      </c>
-      <c r="E44" t="s">
-        <v>673</v>
-      </c>
-      <c r="F44" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44">
-        <v>3</v>
-      </c>
-      <c r="H44" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>590</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>14</v>
-      </c>
-      <c r="D45">
-        <v>43</v>
-      </c>
-      <c r="E45" t="s">
-        <v>675</v>
-      </c>
-      <c r="F45" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="N45" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>590</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>14</v>
-      </c>
-      <c r="D46">
-        <v>44</v>
-      </c>
-      <c r="E46" t="s">
-        <v>677</v>
-      </c>
-      <c r="F46" t="s">
-        <v>150</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="J46" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>590</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>14</v>
-      </c>
-      <c r="D47">
-        <v>45</v>
-      </c>
-      <c r="E47" t="s">
-        <v>679</v>
-      </c>
-      <c r="F47" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47">
-        <v>3</v>
-      </c>
-      <c r="H47" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>590</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>14</v>
-      </c>
-      <c r="D48">
-        <v>46</v>
-      </c>
-      <c r="E48" t="s">
-        <v>680</v>
-      </c>
-      <c r="F48" t="s">
-        <v>150</v>
-      </c>
-      <c r="G48">
-        <v>3</v>
-      </c>
-      <c r="M48" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>590</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>14</v>
-      </c>
-      <c r="D49">
-        <v>47</v>
-      </c>
-      <c r="E49" t="s">
-        <v>682</v>
-      </c>
-      <c r="F49" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49">
-        <v>3</v>
-      </c>
-      <c r="M49" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>684</v>
-      </c>
-      <c r="B50">
-        <v>5</v>
-      </c>
-      <c r="C50">
-        <v>15</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>686</v>
-      </c>
-      <c r="F50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G50">
-        <v>5</v>
-      </c>
-      <c r="K50" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>684</v>
-      </c>
-      <c r="B51">
-        <v>5</v>
-      </c>
-      <c r="C51">
-        <v>15</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>687</v>
-      </c>
-      <c r="F51" t="s">
-        <v>150</v>
-      </c>
-      <c r="G51">
-        <v>10</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>684</v>
-      </c>
-      <c r="B52">
-        <v>5</v>
-      </c>
-      <c r="C52">
-        <v>15</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>689</v>
-      </c>
-      <c r="F52" t="s">
-        <v>150</v>
-      </c>
-      <c r="G52">
-        <v>3</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>684</v>
-      </c>
-      <c r="B53">
-        <v>5</v>
-      </c>
-      <c r="C53">
-        <v>15</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>690</v>
-      </c>
-      <c r="F53" t="s">
-        <v>150</v>
-      </c>
-      <c r="G53">
-        <v>3</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>684</v>
-      </c>
-      <c r="B54">
-        <v>5</v>
-      </c>
-      <c r="C54">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54" t="s">
-        <v>691</v>
-      </c>
-      <c r="F54" t="s">
-        <v>150</v>
-      </c>
-      <c r="G54">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>684</v>
-      </c>
-      <c r="B55">
-        <v>5</v>
-      </c>
-      <c r="C55">
-        <v>15</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="E55" t="s">
-        <v>692</v>
-      </c>
-      <c r="F55" t="s">
-        <v>150</v>
-      </c>
-      <c r="G55">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>684</v>
-      </c>
-      <c r="B56">
-        <v>5</v>
-      </c>
-      <c r="C56">
-        <v>15</v>
-      </c>
-      <c r="D56">
-        <v>7</v>
-      </c>
-      <c r="E56" t="s">
-        <v>698</v>
-      </c>
-      <c r="F56" t="s">
-        <v>150</v>
-      </c>
-      <c r="G56">
-        <v>3</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>684</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>16</v>
-      </c>
-      <c r="D57">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
-        <v>699</v>
-      </c>
-      <c r="F57" t="s">
-        <v>150</v>
-      </c>
-      <c r="G57">
-        <v>3</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>684</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>16</v>
-      </c>
-      <c r="D58">
-        <v>9</v>
-      </c>
-      <c r="E58" t="s">
-        <v>700</v>
-      </c>
-      <c r="F58" t="s">
-        <v>150</v>
-      </c>
-      <c r="G58">
-        <v>3</v>
-      </c>
-      <c r="P58" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>684</v>
-      </c>
-      <c r="B59">
-        <v>5</v>
-      </c>
-      <c r="C59">
-        <v>16</v>
-      </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
-      <c r="E59" t="s">
-        <v>702</v>
-      </c>
-      <c r="F59" t="s">
-        <v>150</v>
-      </c>
-      <c r="G59">
-        <v>3</v>
-      </c>
-      <c r="K59" t="s">
-        <v>703</v>
-      </c>
-      <c r="M59" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>684</v>
-      </c>
-      <c r="B60">
-        <v>5</v>
-      </c>
-      <c r="C60">
-        <v>16</v>
-      </c>
-      <c r="D60">
-        <v>13</v>
-      </c>
-      <c r="E60" t="s">
-        <v>705</v>
-      </c>
-      <c r="F60" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60">
-        <v>3</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>684</v>
-      </c>
-      <c r="B61">
-        <v>5</v>
-      </c>
-      <c r="C61">
-        <v>16</v>
-      </c>
-      <c r="D61">
-        <v>15</v>
-      </c>
-      <c r="E61" t="s">
-        <v>707</v>
-      </c>
-      <c r="F61" t="s">
-        <v>150</v>
-      </c>
-      <c r="G61">
-        <v>3</v>
-      </c>
-      <c r="K61" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>709</v>
-      </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="C62">
-        <v>17</v>
-      </c>
-      <c r="D62">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
-        <v>710</v>
-      </c>
-      <c r="F62" t="s">
-        <v>150</v>
-      </c>
-      <c r="G62">
-        <v>4</v>
-      </c>
-      <c r="K62" t="s">
-        <v>711</v>
-      </c>
-      <c r="M62" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>709</v>
-      </c>
-      <c r="B63">
-        <v>6</v>
-      </c>
-      <c r="C63">
-        <v>17</v>
-      </c>
-      <c r="D63">
-        <v>9</v>
-      </c>
-      <c r="E63" t="s">
-        <v>713</v>
-      </c>
-      <c r="F63" t="s">
-        <v>150</v>
-      </c>
-      <c r="G63">
-        <v>5</v>
-      </c>
-      <c r="V63" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>709</v>
-      </c>
-      <c r="B64">
-        <v>6</v>
-      </c>
-      <c r="C64">
-        <v>17</v>
-      </c>
-      <c r="D64">
-        <v>10</v>
-      </c>
-      <c r="E64" t="s">
-        <v>715</v>
-      </c>
-      <c r="F64" t="s">
-        <v>150</v>
-      </c>
-      <c r="G64">
-        <v>4</v>
-      </c>
-      <c r="V64" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>718</v>
-      </c>
-      <c r="B65">
-        <v>8</v>
-      </c>
-      <c r="C65">
-        <v>20</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>717</v>
-      </c>
-      <c r="F65" t="s">
-        <v>150</v>
-      </c>
-      <c r="G65">
-        <v>3</v>
-      </c>
-      <c r="I65" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>718</v>
-      </c>
-      <c r="B66">
-        <v>8</v>
-      </c>
-      <c r="C66">
-        <v>20</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s">
-        <v>720</v>
-      </c>
-      <c r="F66" t="s">
-        <v>150</v>
-      </c>
-      <c r="G66">
-        <v>2</v>
-      </c>
-      <c r="I66" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>718</v>
-      </c>
-      <c r="B67">
-        <v>8</v>
-      </c>
-      <c r="C67">
-        <v>20</v>
-      </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>722</v>
-      </c>
-      <c r="F67" t="s">
-        <v>150</v>
-      </c>
-      <c r="G67">
-        <v>2</v>
-      </c>
-      <c r="J67" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>724</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="E68" t="s">
-        <v>725</v>
-      </c>
-      <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" t="s">
-        <v>727</v>
-      </c>
-      <c r="X68" t="s">
-        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -22916,6 +22793,1844 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620ED4A3-F279-4D5E-B1C2-7E15CAE276F3}">
+  <dimension ref="A1:AD68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>212</v>
+      </c>
+      <c r="U1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>595</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="V4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>597</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>599</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="V7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>603</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>606</v>
+      </c>
+      <c r="O9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>608</v>
+      </c>
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>590</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>611</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>590</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>613</v>
+      </c>
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>614</v>
+      </c>
+      <c r="F13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>616</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>590</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>617</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>590</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>619</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>590</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>623</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>590</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>624</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>590</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>626</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>590</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>628</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="W20" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>590</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>630</v>
+      </c>
+      <c r="F21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>590</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>632</v>
+      </c>
+      <c r="F22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>590</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>634</v>
+      </c>
+      <c r="F23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="V23" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>590</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>636</v>
+      </c>
+      <c r="F24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>590</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>638</v>
+      </c>
+      <c r="F25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>590</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>640</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>590</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>642</v>
+      </c>
+      <c r="F27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="W27" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>590</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>644</v>
+      </c>
+      <c r="F28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="W28" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>590</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>645</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="W29" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>590</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>648</v>
+      </c>
+      <c r="F30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>649</v>
+      </c>
+      <c r="V30" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>590</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>651</v>
+      </c>
+      <c r="F31" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>590</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>652</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>590</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>654</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>590</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>656</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="M34" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>590</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>658</v>
+      </c>
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>590</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>590</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>590</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>660</v>
+      </c>
+      <c r="F38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="V38" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>590</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>662</v>
+      </c>
+      <c r="F39" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="V39" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>590</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>664</v>
+      </c>
+      <c r="F40" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>590</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
+        <v>666</v>
+      </c>
+      <c r="F41" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="V41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>590</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42" t="s">
+        <v>668</v>
+      </c>
+      <c r="F42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="R42" t="s">
+        <v>670</v>
+      </c>
+      <c r="V42" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>590</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>671</v>
+      </c>
+      <c r="F43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>590</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>673</v>
+      </c>
+      <c r="F44" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>590</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
+        <v>675</v>
+      </c>
+      <c r="F45" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>590</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>677</v>
+      </c>
+      <c r="F46" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>590</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47" t="s">
+        <v>679</v>
+      </c>
+      <c r="F47" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>590</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>680</v>
+      </c>
+      <c r="F48" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="M48" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>590</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49" t="s">
+        <v>682</v>
+      </c>
+      <c r="F49" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="M49" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>684</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>686</v>
+      </c>
+      <c r="F50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="K50" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>684</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>687</v>
+      </c>
+      <c r="F51" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>684</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>689</v>
+      </c>
+      <c r="F52" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>684</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>690</v>
+      </c>
+      <c r="F53" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>684</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>691</v>
+      </c>
+      <c r="F54" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>684</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>692</v>
+      </c>
+      <c r="F55" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>684</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>698</v>
+      </c>
+      <c r="F56" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>684</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>699</v>
+      </c>
+      <c r="F57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>684</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>700</v>
+      </c>
+      <c r="F58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="P58" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>684</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>16</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>702</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="K59" t="s">
+        <v>703</v>
+      </c>
+      <c r="M59" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>684</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>705</v>
+      </c>
+      <c r="F60" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>684</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>707</v>
+      </c>
+      <c r="F61" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="K61" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>709</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>710</v>
+      </c>
+      <c r="F62" t="s">
+        <v>150</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="K62" t="s">
+        <v>711</v>
+      </c>
+      <c r="M62" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>709</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>713</v>
+      </c>
+      <c r="F63" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="V63" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>709</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>715</v>
+      </c>
+      <c r="F64" t="s">
+        <v>150</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="V64" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>718</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>717</v>
+      </c>
+      <c r="F65" t="s">
+        <v>150</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="I65" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>718</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>20</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>720</v>
+      </c>
+      <c r="F66" t="s">
+        <v>150</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="I66" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>718</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>722</v>
+      </c>
+      <c r="F67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="J67" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>724</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>725</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>727</v>
+      </c>
+      <c r="X68" t="s">
+        <v>726</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791B1BE1-D241-46C0-994A-9D98E127C536}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
@@ -23571,7 +25286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043ED559-DAA0-431A-9B04-A3732536D142}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
@@ -24889,7 +26604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE8C26C-BA76-4400-AA32-6C32C966C187}">
   <dimension ref="A1:AC51"/>
   <sheetViews>
@@ -26306,7 +28021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DE5D01-A5EC-488E-AC31-A7E5A7E4C258}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
@@ -26598,7 +28313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0A4618-C118-4F5A-9CF1-ECF421DE8C53}">
   <dimension ref="A1:AC55"/>
   <sheetViews>
@@ -28111,7 +29826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF235F98-A2A8-41AB-8F43-8A15F6C252EC}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
@@ -28581,7 +30296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170A1088-FF14-4F65-B676-FDC93F26339E}">
   <dimension ref="A1:AD37"/>
   <sheetViews>
@@ -34603,7 +36318,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35677,7 +37392,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Cert_coding.xlsx
+++ b/data/Cert_coding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Cert_standards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55499486-062C-4BB9-98C7-0268E450947D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD1745C-12CB-4FBD-9B90-8AED74B8C28A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{1EC9569E-3B54-4671-BB69-0CEE5D05B2FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1EC9569E-3B54-4671-BB69-0CEE5D05B2FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="3" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6274" uniqueCount="2702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6277" uniqueCount="2704">
   <si>
     <t>Section</t>
   </si>
@@ -8643,6 +8643,12 @@
   </si>
   <si>
     <t>An important add-on / extension of Fair Trade</t>
+  </si>
+  <si>
+    <t>Annex 1</t>
+  </si>
+  <si>
+    <t>Meet water-quality standards for Organophosphates</t>
   </si>
 </sst>
 </file>
@@ -9112,8 +9118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3EDBD4-9DE8-4848-9872-FC8CF9A53603}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33642,13 +33648,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A6243-8EB8-476C-A6EE-80F403D43929}">
-  <dimension ref="A1:AF50"/>
+  <dimension ref="A1:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M30" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="12" ySplit="1" topLeftCell="AB30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="AF52" sqref="AF52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34556,7 +34562,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2696</v>
       </c>
@@ -34573,7 +34579,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2696</v>
       </c>
@@ -34585,6 +34591,17 @@
       </c>
       <c r="H50" t="s">
         <v>2686</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>2703</v>
       </c>
     </row>
   </sheetData>
